--- a/test-phase3.xlsx
+++ b/test-phase3.xlsx
@@ -91,7 +91,7 @@
   </cols>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="A1" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetData>
